--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H2">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I2">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J2">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>27.41647498883733</v>
+        <v>0.1867689702988889</v>
       </c>
       <c r="R2">
-        <v>246.748274899536</v>
+        <v>1.68092073269</v>
       </c>
       <c r="S2">
-        <v>0.0152821057762369</v>
+        <v>0.0001490238253840124</v>
       </c>
       <c r="T2">
-        <v>0.0152821057762369</v>
+        <v>0.0001490238253840124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H3">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I3">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J3">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>48.11562336365421</v>
+        <v>0.1217859158668889</v>
       </c>
       <c r="R3">
-        <v>433.0406102728879</v>
+        <v>1.096073242802</v>
       </c>
       <c r="S3">
-        <v>0.02681993385481982</v>
+        <v>9.717354564484232E-05</v>
       </c>
       <c r="T3">
-        <v>0.02681993385481982</v>
+        <v>9.717354564484231E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H4">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I4">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J4">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>9.25662654937689</v>
+        <v>0.02734952685355556</v>
       </c>
       <c r="R4">
-        <v>83.30963894439199</v>
+        <v>0.246145741682</v>
       </c>
       <c r="S4">
-        <v>0.005159698543167801</v>
+        <v>2.18223139937923E-05</v>
       </c>
       <c r="T4">
-        <v>0.0051596985431678</v>
+        <v>2.18223139937923E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H5">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I5">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J5">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>114.2264023913404</v>
+        <v>0.596884780286</v>
       </c>
       <c r="R5">
-        <v>1028.037621522064</v>
+        <v>5.371963022574</v>
       </c>
       <c r="S5">
-        <v>0.06367047421282994</v>
+        <v>0.0004762571273449092</v>
       </c>
       <c r="T5">
-        <v>0.06367047421282993</v>
+        <v>0.0004762571273449091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H6">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>0.03486415912733334</v>
+        <v>0.09383424287055556</v>
       </c>
       <c r="R6">
-        <v>0.313777432146</v>
+        <v>0.844508185835</v>
       </c>
       <c r="S6">
-        <v>1.943348909005964E-05</v>
+        <v>7.487077645823415E-05</v>
       </c>
       <c r="T6">
-        <v>1.943348909005964E-05</v>
+        <v>7.487077645823415E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H7">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
         <v>0.06118623018255556</v>
       </c>
       <c r="R7">
-        <v>0.5506760716429999</v>
+        <v>0.550676071643</v>
       </c>
       <c r="S7">
-        <v>3.410556762237676E-05</v>
+        <v>4.88207761066475E-05</v>
       </c>
       <c r="T7">
-        <v>3.410556762237676E-05</v>
+        <v>4.882077610664749E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H8">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>0.01177118871522223</v>
+        <v>0.01374062372922222</v>
       </c>
       <c r="R8">
-        <v>0.105940698437</v>
+        <v>0.123665613563</v>
       </c>
       <c r="S8">
-        <v>6.561330409227085E-06</v>
+        <v>1.096370723688255E-05</v>
       </c>
       <c r="T8">
-        <v>6.561330409227084E-06</v>
+        <v>1.096370723688255E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H9">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>0.1452559992171111</v>
+        <v>0.299879746349</v>
       </c>
       <c r="R9">
-        <v>1.307303992954</v>
+        <v>2.698917717141</v>
       </c>
       <c r="S9">
-        <v>8.096655553176254E-05</v>
+        <v>0.0002392754368383492</v>
       </c>
       <c r="T9">
-        <v>8.096655553176253E-05</v>
+        <v>0.0002392754368383492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H10">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I10">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J10">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>219.6948630135707</v>
+        <v>250.659594298525</v>
       </c>
       <c r="R10">
-        <v>1977.253767122136</v>
+        <v>2255.936348686725</v>
       </c>
       <c r="S10">
-        <v>0.1224592197369003</v>
+        <v>0.2000024498276789</v>
       </c>
       <c r="T10">
-        <v>0.1224592197369003</v>
+        <v>0.200002449827679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H11">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I11">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J11">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>385.562158811243</v>
+        <v>163.446894918445</v>
       </c>
       <c r="R11">
-        <v>3470.059429301187</v>
+        <v>1471.022054266005</v>
       </c>
       <c r="S11">
-        <v>0.2149146342360456</v>
+        <v>0.1304150335513751</v>
       </c>
       <c r="T11">
-        <v>0.2149146342360456</v>
+        <v>0.1304150335513751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H12">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I12">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J12">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>74.17559341823245</v>
+        <v>36.705354719245</v>
       </c>
       <c r="R12">
-        <v>667.5803407640919</v>
+        <v>330.348192473205</v>
       </c>
       <c r="S12">
-        <v>0.04134591573475805</v>
+        <v>0.02928737232734824</v>
       </c>
       <c r="T12">
-        <v>0.04134591573475804</v>
+        <v>0.02928737232734823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H13">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I13">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J13">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>915.3238640677182</v>
+        <v>801.0693458877149</v>
       </c>
       <c r="R13">
-        <v>8237.914776609463</v>
+        <v>7209.624112989434</v>
       </c>
       <c r="S13">
-        <v>0.5102069509625883</v>
+        <v>0.6391769367845901</v>
       </c>
       <c r="T13">
-        <v>0.5102069509625882</v>
+        <v>0.63917693678459</v>
       </c>
     </row>
   </sheetData>
